--- a/data/cellCountsTypes.xlsx
+++ b/data/cellCountsTypes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30640" yWindow="10760" windowWidth="23960" windowHeight="18040" tabRatio="500"/>
+    <workbookView xWindow="-30200" yWindow="6160" windowWidth="23960" windowHeight="18040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,16 +53,16 @@
     <t>s3</t>
   </si>
   <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>Type 2</t>
-  </si>
-  <si>
     <t>Avg</t>
   </si>
   <si>
     <t>Avg FC</t>
+  </si>
+  <si>
+    <t>Type 1 ('Cells')</t>
+  </si>
+  <si>
+    <t>Type 2 ('Debris')</t>
   </si>
 </sst>
 </file>
@@ -414,27 +414,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,21 +449,29 @@
         <v>490000</v>
       </c>
       <c r="E2" s="2">
+        <f>D2/2</f>
+        <v>245000</v>
+      </c>
+      <c r="F2" s="2">
         <v>389</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>510</v>
       </c>
-      <c r="G2" s="2">
-        <f>(F2+E2)/2*10^4</f>
+      <c r="H2" s="2">
+        <f>(G2+F2)/2*10^4</f>
         <v>4495000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
+        <f>H2/2</f>
+        <v>2247500</v>
+      </c>
+      <c r="J2">
         <f>MEDIAN(B2:C5)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -474,21 +482,29 @@
         <v>55</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="0">(C3+B3)/2*10^4</f>
+        <f>(C3+B3)/2*10^4</f>
         <v>525000</v>
       </c>
       <c r="E3" s="2">
+        <f t="shared" ref="E3:E9" si="0">D3/2</f>
+        <v>262500</v>
+      </c>
+      <c r="F3" s="2">
         <v>263</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>248</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G9" si="1">(F3+E3)/2*10^4</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="1">(G3+F3)/2*10^4</f>
         <v>2555000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I9" si="2">H3/2</f>
+        <v>1277500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -499,21 +515,29 @@
         <v>60</v>
       </c>
       <c r="D4" s="2">
+        <f>(C4+B4)/2*10^4</f>
+        <v>595000</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>595000</v>
-      </c>
-      <c r="E4" s="2">
+        <v>297500</v>
+      </c>
+      <c r="F4" s="2">
         <v>458</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>427</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>4425000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>2212500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -524,21 +548,29 @@
         <v>57</v>
       </c>
       <c r="D5" s="2">
+        <f>(C5+B5)/2*10^4</f>
+        <v>620000</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>620000</v>
-      </c>
-      <c r="E5" s="2">
+        <v>310000</v>
+      </c>
+      <c r="F5" s="2">
         <v>325</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>279</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>3020000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>1510000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -549,25 +581,33 @@
         <v>27</v>
       </c>
       <c r="D6" s="2">
+        <f>(C6+B6)/2*10^4</f>
+        <v>265000</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>265000</v>
-      </c>
-      <c r="E6" s="2">
+        <v>132500</v>
+      </c>
+      <c r="F6" s="2">
         <v>264</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>209</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>2365000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>1182500</v>
+      </c>
+      <c r="J6">
         <f>MEDIAN(B6:C9)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -578,21 +618,29 @@
         <v>21</v>
       </c>
       <c r="D7" s="2">
+        <f>(C7+B7)/2*10^4</f>
+        <v>215000</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>215000</v>
-      </c>
-      <c r="E7" s="2">
+        <v>107500</v>
+      </c>
+      <c r="F7" s="2">
         <v>254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>274</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>2640000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -603,21 +651,29 @@
         <v>25</v>
       </c>
       <c r="D8" s="2">
+        <f>(C8+B8)/2*10^4</f>
+        <v>240000</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
-      <c r="E8" s="2">
+        <v>120000</v>
+      </c>
+      <c r="F8" s="2">
         <v>269</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>233</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>2510000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>1255000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,30 +684,200 @@
         <v>26</v>
       </c>
       <c r="D9" s="2">
+        <f>(C9+B9)/2*10^4</f>
+        <v>245000</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>245000</v>
-      </c>
-      <c r="E9" s="2">
+        <v>122500</v>
+      </c>
+      <c r="F9" s="2">
         <v>292</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>217</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>2545000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>1272500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>B2/2</f>
+        <v>23.5</v>
+      </c>
+      <c r="C11">
+        <f>C2/2</f>
+        <v>25.5</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11">
+        <f>F2/2</f>
+        <v>194.5</v>
+      </c>
+      <c r="G11">
+        <f>G2/2</f>
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <f>J2/J6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" ref="B12:C19" si="3">B3/2</f>
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="4">F3/2</f>
+        <v>131.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13">
+        <f t="shared" ref="F13:G13" si="5">F4/2</f>
+        <v>229</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>33.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14">
+        <f t="shared" ref="F14:G14" si="6">F5/2</f>
+        <v>162.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15">
+        <f t="shared" ref="F15:G15" si="7">F6/2</f>
+        <v>132</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I11">
-        <f>I2/I6</f>
-        <v>2.3333333333333335</v>
-      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16">
+        <f t="shared" ref="F16:G16" si="8">F7/2</f>
+        <v>127</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17">
+        <f t="shared" ref="F17:G17" si="9">F8/2</f>
+        <v>134.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18">
+        <f t="shared" ref="F18:G18" si="10">F9/2</f>
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
